--- a/data-selectedUnvi.xlsx
+++ b/data-selectedUnvi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>지원 가능 대학</t>
   </si>
@@ -164,205 +164,70 @@
     <t>2019전형평균</t>
   </si>
   <si>
-    <t>동국대</t>
+    <t>상명대</t>
   </si>
   <si>
     <t>수시</t>
   </si>
   <si>
-    <t>학생부종합</t>
-  </si>
-  <si>
-    <t>Do Dream(소프트웨어)</t>
-  </si>
-  <si>
-    <t>멀티미디어공학과</t>
+    <t>학생부교과</t>
+  </si>
+  <si>
+    <t>고교추천</t>
+  </si>
+  <si>
+    <t>게임전공</t>
   </si>
   <si>
     <t>자연</t>
   </si>
   <si>
-    <t>미디어</t>
-  </si>
-  <si>
-    <t>국내외 고교 졸업(예정)자 또는 동등학력 이상 인정된 자</t>
-  </si>
-  <si>
-    <t>단계별</t>
-  </si>
-  <si>
-    <t>서류(100)</t>
-  </si>
-  <si>
-    <t>3배수</t>
-  </si>
-  <si>
-    <t>서류(70) + 면접(30)</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>교과 95, 가중치 없음, 국영사/수영과 중 학기당 교과별 1과목, 총 15과목, 석차등급</t>
-  </si>
-  <si>
-    <t>지원동기(10) 자기주도 학습능력(25) 전공적합성(50) 인성 및 사회성(15)</t>
-  </si>
-  <si>
-    <t>1:2 제출서류기반 개별면접, 전형취지적합성(20) 전공적합성(30) 발전가능성(30) 인성 및 사회성(20), 10분내외</t>
+    <t>게임</t>
+  </si>
+  <si>
+    <t>2017년 2월 이후 국내 고교 졸업(예정)자로서 소속 고등학교장의 추천을 받은 자이며, 5개학기 교과성적 산출이 가능한 자, 고교별 추천인원 10명 이내</t>
+  </si>
+  <si>
+    <t>일괄합산</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>교과(100)</t>
+  </si>
+  <si>
+    <t>국어, 수학, 영어, 탐구(1과목) 중 2개 합 7등급 이내</t>
+  </si>
+  <si>
+    <t>교과 100, 가중치 없음, 석차등급 평가된 전 교과목 + 성취등급 평가된 최대 3과목</t>
   </si>
   <si>
     <t>해당없음</t>
   </si>
   <si>
-    <t>학교생활기록부, 자기소개서</t>
-  </si>
-  <si>
-    <t>{지원동기와 노력과정 800자 true}</t>
-  </si>
-  <si>
-    <t>2020까지 SW실기전형에서 DoDream전형으로 변경확대 모집</t>
-  </si>
-  <si>
-    <t>9.10.(금) ~ 9.14.(화) 17:00</t>
-  </si>
-  <si>
-    <t>9.15.(수) 17:00</t>
-  </si>
-  <si>
-    <t>11.19.(금)</t>
-  </si>
-  <si>
-    <t>12.11.(토) ~ 12.12.(일)</t>
-  </si>
-  <si>
-    <t>12.16.(목)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>10.08:1</t>
-  </si>
-  <si>
-    <t>17.1:1</t>
-  </si>
-  <si>
-    <t>서울여대</t>
-  </si>
-  <si>
-    <t>SW융합인재</t>
-  </si>
-  <si>
-    <t>디지털미디어학과</t>
-  </si>
-  <si>
-    <t>고교 졸업(예정)자 또는 동등학력 이상 인정된 자</t>
-  </si>
-  <si>
-    <t>4배수</t>
-  </si>
-  <si>
-    <t>1단계(60) + 면접(40)</t>
-  </si>
-  <si>
-    <t>학업역량(30) 전공적합성(30) 인성(20) 발전가능성(20)</t>
-  </si>
-  <si>
-    <t>1:2 제출서류기반 개별면접, 전공적합성(40) 발전가능성(35) 인성 및 의사소통능력(25), 10분내외</t>
-  </si>
-  <si>
-    <t>{없음 true}</t>
+    <t>학교생활기록부</t>
+  </si>
+  <si>
+    <t>{ false}</t>
+  </si>
+  <si>
+    <t>2022 학생부교과전형에서 고교추천으로 개명</t>
   </si>
   <si>
     <t>9.10.(금) ~ 9.14.(화) 18:00</t>
   </si>
   <si>
-    <t>9.15.(수)</t>
-  </si>
-  <si>
-    <t>12.01.(수)</t>
-  </si>
-  <si>
-    <t>(면접)12.04.(토)</t>
-  </si>
-  <si>
-    <t>6.4:1</t>
-  </si>
-  <si>
-    <t>9.2:1</t>
-  </si>
-  <si>
-    <t>15.3:1</t>
-  </si>
-  <si>
-    <t>바롬인재</t>
-  </si>
-  <si>
-    <t>10.27.(수)</t>
-  </si>
-  <si>
-    <t>(면접)10.30.(토)</t>
-  </si>
-  <si>
-    <t>11.12.(금)</t>
-  </si>
-  <si>
-    <t>9.6:1</t>
-  </si>
-  <si>
-    <t>15.0:1</t>
-  </si>
-  <si>
-    <t>18.9:1</t>
-  </si>
-  <si>
-    <t>숭실대</t>
-  </si>
-  <si>
-    <t>SSU미래인재</t>
-  </si>
-  <si>
-    <t>글로벌미디어학부</t>
-  </si>
-  <si>
-    <t>1단계(70) + 면접(30)</t>
-  </si>
-  <si>
-    <t>학업역량(14점) 활동역량(성실, 전공적합, 자기주도)(38점) 잠재역량(발전가능, 인성)(18점)</t>
-  </si>
-  <si>
-    <t>1:2 제출서류기반 개별면접, 전공적합성(15점), 인성 및 잠재력(15점), 10분 내외</t>
-  </si>
-  <si>
-    <t>{지원동기와 학업계획 및 진로계획, 800자 true}</t>
-  </si>
-  <si>
-    <t>2020 / 2019 전교과 평균</t>
-  </si>
-  <si>
-    <t>9.11.(토) ~ 9.14.(화) 18:00</t>
-  </si>
-  <si>
-    <t>9.15.(수) 18:00</t>
-  </si>
-  <si>
-    <t>11.23.(화)</t>
-  </si>
-  <si>
-    <t>(면접)11.27.(토)</t>
-  </si>
-  <si>
-    <t>6.19:1</t>
-  </si>
-  <si>
-    <t>6.70:1</t>
-  </si>
-  <si>
-    <t>8.3:1</t>
+    <t>12.16.(목) 14:00</t>
+  </si>
+  <si>
+    <t>12.11:1</t>
+  </si>
+  <si>
+    <t>6.01:1</t>
+  </si>
+  <si>
+    <t>7.6:1</t>
   </si>
 </sst>
 </file>
@@ -872,7 +737,7 @@
         <v>55</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
@@ -884,82 +749,82 @@
         <v>58</v>
       </c>
       <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>61</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
         <v>63</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>64</v>
       </c>
-      <c r="S3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>65</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>66</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s">
         <v>67</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
         <v>68</v>
       </c>
-      <c r="X3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>75</v>
-      </c>
       <c r="AF3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -968,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.17</v>
+        <v>2.97</v>
       </c>
       <c r="AP3">
-        <v>4.98</v>
+        <v>3.77</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -989,468 +854,12 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>3.2</v>
+        <v>2.08</v>
       </c>
       <c r="AW3">
-        <v>4.78</v>
+        <v>2.27</v>
       </c>
       <c r="AX3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" t="s">
-        <v>86</v>
-      </c>
-      <c r="W4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD4">
-        <v>10</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4">
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <v>3.3</v>
-      </c>
-      <c r="AH4">
-        <v>3.9</v>
-      </c>
-      <c r="AI4">
-        <v>5.1</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>6</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM4">
-        <v>7</v>
-      </c>
-      <c r="AN4">
-        <v>3.1</v>
-      </c>
-      <c r="AO4">
-        <v>3.8</v>
-      </c>
-      <c r="AP4">
-        <v>4.9</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>4</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>3.8</v>
-      </c>
-      <c r="AW4">
-        <v>4.5</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" t="s">
-        <v>66</v>
-      </c>
-      <c r="V5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD5">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF5">
-        <v>9</v>
-      </c>
-      <c r="AG5">
-        <v>2.8</v>
-      </c>
-      <c r="AH5">
-        <v>3.8</v>
-      </c>
-      <c r="AI5">
-        <v>5.1</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>8</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM5">
-        <v>11</v>
-      </c>
-      <c r="AN5">
-        <v>2.9</v>
-      </c>
-      <c r="AO5">
-        <v>3.5</v>
-      </c>
-      <c r="AP5">
-        <v>5.2</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>8</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>3.6</v>
-      </c>
-      <c r="AW5">
-        <v>4.1</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>105</v>
-      </c>
-      <c r="R6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S6" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" t="s">
-        <v>66</v>
-      </c>
-      <c r="V6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD6">
-        <v>26</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF6">
-        <v>15</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>30</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM6">
-        <v>13</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>2.93</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>29</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>3.05</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
         <v>0</v>
       </c>
     </row>
